--- a/KursProjectDataBase/Services/TemporalData/report.xlsx
+++ b/KursProjectDataBase/Services/TemporalData/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Имя</t>
   </si>
@@ -32,51 +32,72 @@
     <t>Рейтинг</t>
   </si>
   <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>Ермилов</t>
+  </si>
+  <si>
+    <t>erm03@mail.ru</t>
+  </si>
+  <si>
+    <t>М</t>
+  </si>
+  <si>
+    <t>Макс</t>
+  </si>
+  <si>
+    <t>Циц</t>
+  </si>
+  <si>
+    <t>fantokin03@mail.ru</t>
+  </si>
+  <si>
+    <t>Адель</t>
+  </si>
+  <si>
+    <t>Черкасова</t>
+  </si>
+  <si>
+    <t>checrka@mail.ru</t>
+  </si>
+  <si>
+    <t>Ж</t>
+  </si>
+  <si>
+    <t>Гоша</t>
+  </si>
+  <si>
+    <t>Норман</t>
+  </si>
+  <si>
+    <t>dfsakl@mail.ru</t>
+  </si>
+  <si>
+    <t>Вадим</t>
+  </si>
+  <si>
+    <t>Алтынов</t>
+  </si>
+  <si>
+    <t>fsada@mail.ru</t>
+  </si>
+  <si>
+    <t>Ирина</t>
+  </si>
+  <si>
+    <t>Фрисова</t>
+  </si>
+  <si>
     <t>Никита</t>
   </si>
   <si>
     <t>Фантокин</t>
   </si>
   <si>
-    <t>fantokin03@mail.ru</t>
-  </si>
-  <si>
-    <t>М</t>
-  </si>
-  <si>
     <t>testmail@mail.ru</t>
   </si>
   <si>
-    <t>Адель</t>
-  </si>
-  <si>
-    <t>Черкасова</t>
-  </si>
-  <si>
-    <t>checrka@mail.ru</t>
-  </si>
-  <si>
-    <t>Ж</t>
-  </si>
-  <si>
-    <t>Макс</t>
-  </si>
-  <si>
-    <t>Циц</t>
-  </si>
-  <si>
-    <t>cic@mail.ru</t>
-  </si>
-  <si>
-    <t>Ирина</t>
-  </si>
-  <si>
-    <t>Фрисова</t>
-  </si>
-  <si>
-    <t>fris24@mail.ru</t>
-  </si>
-  <si>
     <t>Лицензия</t>
   </si>
   <si>
@@ -101,150 +122,156 @@
     <t>fdsllj@gmail.com</t>
   </si>
   <si>
+    <t>Шиша</t>
+  </si>
+  <si>
+    <t>Шишка</t>
+  </si>
+  <si>
+    <t>dwa@mail.ru</t>
+  </si>
+  <si>
     <t>874398623</t>
   </si>
   <si>
-    <t>Шиша</t>
-  </si>
-  <si>
-    <t>Шишка</t>
-  </si>
-  <si>
-    <t>dwa@mail.ru</t>
+    <t>Ева</t>
+  </si>
+  <si>
+    <t>Чеснокова</t>
+  </si>
+  <si>
+    <t>eva21312@mail.ru</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Ромашков</t>
+  </si>
+  <si>
+    <t>RRR@mail.ru</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>udasw@mail.ru</t>
   </si>
   <si>
     <t>143878268</t>
   </si>
   <si>
-    <t>Ева</t>
-  </si>
-  <si>
-    <t>Чеснокова</t>
-  </si>
-  <si>
-    <t>eva21312@mail.ru</t>
+    <t>Аня</t>
+  </si>
+  <si>
+    <t>Союзная</t>
+  </si>
+  <si>
+    <t>irakld@mail.ru</t>
   </si>
   <si>
     <t>320996240</t>
   </si>
   <si>
-    <t>Роман</t>
-  </si>
-  <si>
-    <t>Ромашков</t>
-  </si>
-  <si>
-    <t>RRR@mail.ru</t>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>Громина</t>
+  </si>
+  <si>
+    <t>ansast@mail.ru</t>
   </si>
   <si>
     <t>377061876</t>
   </si>
   <si>
-    <t>Дмитрий</t>
-  </si>
-  <si>
-    <t>Алтынов</t>
-  </si>
-  <si>
-    <t>udasw@mail.ru</t>
+    <t>Егор</t>
+  </si>
+  <si>
+    <t>Поэт</t>
+  </si>
+  <si>
+    <t>poet34@mail.ru</t>
   </si>
   <si>
     <t>139341973</t>
   </si>
   <si>
-    <t>Аня</t>
-  </si>
-  <si>
-    <t>Союзная</t>
-  </si>
-  <si>
-    <t>irakld@mail.ru</t>
+    <t>Фин</t>
+  </si>
+  <si>
+    <t>Турник</t>
+  </si>
+  <si>
+    <t>turnikman34@mail.ru</t>
+  </si>
+  <si>
+    <t>Финогеев</t>
+  </si>
+  <si>
+    <t>fin34@mail.ru</t>
   </si>
   <si>
     <t>686049633</t>
   </si>
   <si>
-    <t>Анастасия</t>
-  </si>
-  <si>
-    <t>Громина</t>
-  </si>
-  <si>
-    <t>ansast@mail.ru</t>
+    <t>Валера</t>
+  </si>
+  <si>
+    <t>Сторожук</t>
+  </si>
+  <si>
+    <t>juk@mail.ru</t>
   </si>
   <si>
     <t>322058086</t>
   </si>
   <si>
-    <t>Егор</t>
-  </si>
-  <si>
-    <t>Поэт</t>
-  </si>
-  <si>
-    <t>poet34@mail.ru</t>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Кривцов</t>
+  </si>
+  <si>
+    <t>krovs@mail.ru</t>
+  </si>
+  <si>
+    <t>Наталья</t>
+  </si>
+  <si>
+    <t>Климова</t>
+  </si>
+  <si>
+    <t>Klimova@mail.ru</t>
   </si>
   <si>
     <t>58234113</t>
   </si>
   <si>
-    <t>Финогеев</t>
-  </si>
-  <si>
-    <t>fin34@mail.ru</t>
+    <t>Армине</t>
+  </si>
+  <si>
+    <t>Тадевосян</t>
+  </si>
+  <si>
+    <t>tade@mail.ru</t>
+  </si>
+  <si>
+    <t>623727389</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>ТЕстовый</t>
+  </si>
+  <si>
+    <t>dawdwd2@mail.ru</t>
   </si>
   <si>
     <t>556638646</t>
   </si>
   <si>
-    <t>Валера</t>
-  </si>
-  <si>
-    <t>Сторожук</t>
-  </si>
-  <si>
-    <t>juk@mail.ru</t>
-  </si>
-  <si>
-    <t>34273867</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>Кривцов</t>
-  </si>
-  <si>
-    <t>krovs@mail.ru</t>
-  </si>
-  <si>
-    <t>894152124</t>
-  </si>
-  <si>
-    <t>Армине</t>
-  </si>
-  <si>
-    <t>Тадевосян</t>
-  </si>
-  <si>
-    <t>tade@mail.ru</t>
-  </si>
-  <si>
-    <t>508601450</t>
-  </si>
-  <si>
-    <t>Тест</t>
-  </si>
-  <si>
-    <t>ТЕстовый</t>
-  </si>
-  <si>
-    <t>dawdwd2@mail.ru</t>
-  </si>
-  <si>
-    <t>166025229</t>
-  </si>
-  <si>
     <t>Арендодатель</t>
   </si>
   <si>
@@ -369,6 +396,12 @@
   </si>
   <si>
     <t>Осторогожская</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Хользунова</t>
   </si>
   <si>
     <t>53</t>
@@ -447,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,13 +529,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
@@ -513,16 +546,16 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" s="0">
         <v>0</v>
@@ -530,13 +563,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>8</v>
@@ -547,13 +580,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>8</v>
@@ -564,16 +597,16 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="0">
         <v>1</v>
@@ -581,13 +614,13 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>8</v>
@@ -598,222 +631,18 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="0">
         <v>5</v>
       </c>
     </row>
@@ -824,7 +653,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -851,347 +680,279 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +962,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1221,54 +982,54 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0">
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G2" s="0">
         <v>12</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I2" s="0">
         <v>10000</v>
@@ -1276,28 +1037,28 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0">
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G3" s="0">
         <v>34</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I3" s="0">
         <v>10000</v>
@@ -1305,28 +1066,28 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0">
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G4" s="0">
         <v>50</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I4" s="0">
         <v>19000</v>
@@ -1334,28 +1095,28 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0">
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G5" s="0">
         <v>97</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I5" s="0">
         <v>20000</v>
@@ -1363,28 +1124,28 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0">
         <v>3</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G6" s="0">
         <v>3</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I6" s="0">
         <v>20000</v>
@@ -1392,28 +1153,28 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0">
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G7" s="0">
         <v>3</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I7" s="0">
         <v>30000</v>
@@ -1421,28 +1182,28 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0">
         <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G8" s="0">
         <v>3</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I8" s="0">
         <v>14000</v>
@@ -1450,28 +1211,28 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B9" s="0">
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G9" s="0">
         <v>31</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I9" s="0">
         <v>25000</v>
@@ -1479,28 +1240,28 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0">
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D10" s="0">
         <v>3</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G10" s="0">
         <v>189</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I10" s="0">
         <v>18000</v>
@@ -1508,28 +1269,28 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0">
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D11" s="0">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G11" s="0">
         <v>84</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I11" s="0">
         <v>19000</v>
@@ -1537,28 +1298,28 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0">
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D12" s="0">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G12" s="0">
         <v>199</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I12" s="0">
         <v>13000</v>
@@ -1566,28 +1327,28 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0">
         <v>7</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D13" s="0">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G13" s="0">
         <v>42</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I13" s="0">
         <v>15000</v>
@@ -1595,28 +1356,28 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0">
         <v>3</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D14" s="0">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G14" s="0">
         <v>144</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I14" s="0">
         <v>15000</v>
@@ -1624,28 +1385,28 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" s="0">
         <v>8</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D15" s="0">
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G15" s="0">
         <v>61</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I15" s="0">
         <v>15000</v>
@@ -1653,175 +1414,233 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B16" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D16" s="0">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G16" s="0">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I16" s="0">
-        <v>12000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D17" s="0">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G17" s="0">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I17" s="0">
-        <v>12800</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B18" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D18" s="0">
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G18" s="0">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I18" s="0">
-        <v>11000</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B19" s="0">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D19" s="0">
         <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G19" s="0">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I19" s="0">
-        <v>5000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="0">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D20" s="0">
         <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G20" s="0">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I20" s="0">
-        <v>15500</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B21" s="0">
+        <v>9</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="0">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="0">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="0">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="0">
         <v>3</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="0">
+      <c r="C22" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="0">
+        <v>10</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="0">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="0">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="0">
         <v>2</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="0">
+      <c r="E23" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="0">
         <v>34</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="0">
+      <c r="H23" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="0">
         <v>50000</v>
       </c>
     </row>
@@ -1832,7 +1651,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1840,737 +1659,807 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0">
         <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E2" s="0">
         <v>3</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H2" s="0">
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J2" s="0">
         <v>10000</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0">
         <v>5</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E3" s="0">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H3" s="0">
         <v>34</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J3" s="0">
         <v>10000</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0">
         <v>5</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E4" s="0">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H4" s="0">
         <v>50</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J4" s="0">
         <v>19000</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0">
         <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E5" s="0">
         <v>2</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="H5" s="0">
         <v>97</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J5" s="0">
         <v>20000</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0">
         <v>3</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E6" s="0">
         <v>2</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H6" s="0">
         <v>3</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J6" s="0">
         <v>20000</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0">
         <v>2</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E7" s="0">
         <v>2</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H7" s="0">
         <v>3</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J7" s="0">
         <v>30000</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0">
         <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E8" s="0">
         <v>2</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H8" s="0">
         <v>3</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J8" s="0">
         <v>14000</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0">
         <v>5</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E9" s="0">
         <v>1</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H9" s="0">
         <v>31</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J9" s="0">
         <v>25000</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0">
         <v>5</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E10" s="0">
         <v>3</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="H10" s="0">
         <v>189</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J10" s="0">
         <v>18000</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0">
         <v>5</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E11" s="0">
         <v>1</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H11" s="0">
         <v>84</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J11" s="0">
         <v>19000</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0">
         <v>5</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E12" s="0">
         <v>1</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H12" s="0">
         <v>199</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J12" s="0">
         <v>13000</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0">
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E13" s="0">
         <v>1</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H13" s="0">
         <v>42</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J13" s="0">
         <v>15000</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0">
         <v>3</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E14" s="0">
         <v>1</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H14" s="0">
         <v>144</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J14" s="0">
         <v>15000</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C15" s="0">
         <v>8</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E15" s="0">
         <v>1</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H15" s="0">
         <v>61</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J15" s="0">
         <v>15000</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E16" s="0">
         <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H16" s="0">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J16" s="0">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C17" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E17" s="0">
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H17" s="0">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J17" s="0">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C18" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E18" s="0">
         <v>1</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H18" s="0">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J18" s="0">
-        <v>11000</v>
+        <v>12800</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C19" s="0">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E19" s="0">
         <v>1</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="H19" s="0">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J19" s="0">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C20" s="0">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E20" s="0">
         <v>1</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H20" s="0">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J20" s="0">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C21" s="0">
+        <v>9</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="0">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="0">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="0">
+        <v>5000</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="0">
         <v>3</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="0">
+      <c r="D22" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="0">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="0">
+        <v>10</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="0">
+        <v>15500</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="0">
+        <v>3</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="0">
         <v>2</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="0">
+      <c r="F23" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="0">
         <v>34</v>
       </c>
-      <c r="I21" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="0">
+      <c r="I23" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="0">
         <v>50000</v>
       </c>
-      <c r="K21" s="0" t="s">
-        <v>125</v>
+      <c r="K23" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
